--- a/biology/Biochimie/Faten_Zahran_Mohammed/Faten_Zahran_Mohammed.xlsx
+++ b/biology/Biochimie/Faten_Zahran_Mohammed/Faten_Zahran_Mohammed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Faten Zahran Mohammed (en arabe : فاتن زهران محمد ; née le 11 octobre 1955 au Caire) est une biochimiste égyptienne et biologiste de l'environnement, biologiste du cancer et toxicologue connue pour ses travaux sur les effets anti-tumoraux du venin de serpent et de l'iodoacétate (en). Elle est actuellement professeure de biochimie à l'université de Zagazig, en Égypte[1], chef de la division de biochimie, Faculté des sciences et membre des comités de promotion des universités égyptiennes "EUPC".
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Faten Zahran Mohammed (en arabe : فاتن زهران محمد ; née le 11 octobre 1955 au Caire) est une biochimiste égyptienne et biologiste de l'environnement, biologiste du cancer et toxicologue connue pour ses travaux sur les effets anti-tumoraux du venin de serpent et de l'iodoacétate (en). Elle est actuellement professeure de biochimie à l'université de Zagazig, en Égypte, chef de la division de biochimie, Faculté des sciences et membre des comités de promotion des universités égyptiennes "EUPC".
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a obtenu son bachelor of sciences en 1977, sa maîtrise en biochimie en 1981, et son doctorat de biochimie en 1985 de la Faculté des sciences de l'Université Ain Shams. Elle a reçu son M.Sc. et Ph.D. sous la supervision du Dr Fawzia Abbas Fahim. 
 Elle a travaillé comme démonstratrice de biochimie au département de chimie, Faculté des sciences de l'université de Zagazig, en Égypte, de 1977 à 1981, puis chargée de cours adjointe de biochimie de 1981 à 1985, ensuite chargée de cours de biochimie de 1985 à 1991 et elle est devenue professeure adjointe de biochimie de 1991 à 1996 et enfin Professeure de biochimie au Département de chimie de 1996 à 2008.  
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Fahim FA ., Zahran F., Mady EA. "Effect of N. nigricollis venom and its fraction on EAC in mice" Dans: Conférence Internationale de la Société égyptienne d'Oncologie des marqueurs de tumeurs, 1, Le Caire, 1988. Université Ain Shams - Faculté de médecine, 1988. 375-94.
 Mohamed AH, Fouad S, El-Aasar S, Salem AM, Abdel-Aal A, Hassan AA, Zahran F, Abbas N. "Effects of several snake venoms on serum and tissue transaminases, alkaline phosphatase and lactate dehydrogenase" Toxicon. 1981; 19 (5): 605-9.
